--- a/orbitToolsDemo/Report Graph of Lat_Lon/Lat_Lon_93MINS.xlsx
+++ b/orbitToolsDemo/Report Graph of Lat_Lon/Lat_Lon_93MINS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\FYP_Satellite\orbitToolsDemo\Report Graph of Lat_Lon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>T since</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Longitude 2</t>
+  </si>
+  <si>
+    <t>Start at 12.24:24PM LOCAL TIME(GMT+8)</t>
+  </si>
+  <si>
+    <t>U OWNSELF PLUS MINUS K</t>
   </si>
 </sst>
 </file>
@@ -1322,8 +1328,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="201561640"/>
-        <c:axId val="201563208"/>
+        <c:axId val="369676592"/>
+        <c:axId val="444588928"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1961,7 +1967,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201561640"/>
+        <c:axId val="369676592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201563208"/>
+        <c:crossAx val="444588928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2069,7 +2075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201563208"/>
+        <c:axId val="444588928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201561640"/>
+        <c:crossAx val="369676592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2958,8 +2964,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="202791776"/>
-        <c:axId val="202788248"/>
+        <c:axId val="444592848"/>
+        <c:axId val="444605784"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -3596,7 +3602,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202791776"/>
+        <c:axId val="444592848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3695,7 +3701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202788248"/>
+        <c:crossAx val="444605784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3704,7 +3710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202788248"/>
+        <c:axId val="444605784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,7 +3817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202791776"/>
+        <c:crossAx val="444592848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5008,16 +5014,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>287459</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>102820</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>255709</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>109170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>509709</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>83771</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>27109</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>90121</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5040,13 +5046,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>69851</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5334,17 +5340,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="8.7265625" style="3"/>
+    <col min="2" max="4" width="8.7265625" style="2"/>
     <col min="8" max="8" width="8.7265625" style="3"/>
     <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.08984375" style="5" bestFit="1" customWidth="1"/>
@@ -5372,7 +5377,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -5401,7 +5406,7 @@
       <c r="C3" s="2">
         <v>-93.425607205899993</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>403.32542587299997</v>
       </c>
       <c r="F3">
@@ -5434,7 +5439,7 @@
       <c r="C4" s="2">
         <v>-91.060326543299993</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>403.51245600099998</v>
       </c>
       <c r="F4" s="2">
@@ -5467,7 +5472,7 @@
       <c r="C5" s="2">
         <v>-88.765960363100007</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>403.79346713799998</v>
       </c>
       <c r="F5" s="2">
@@ -5503,7 +5508,7 @@
       <c r="C6" s="2">
         <v>-86.526742261300001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>404.17301744899999</v>
       </c>
       <c r="F6" s="2">
@@ -5530,7 +5535,7 @@
       <c r="C7" s="2">
         <v>-84.327745826500006</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>404.65395882299998</v>
       </c>
       <c r="F7" s="2">
@@ -5557,7 +5562,7 @@
       <c r="C8" s="2">
         <v>-82.154668250200004</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>405.23733746400001</v>
       </c>
       <c r="F8" s="2">
@@ -5584,7 +5589,7 @@
       <c r="C9" s="2">
         <v>-79.993614708600006</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>405.92232875799999</v>
       </c>
       <c r="F9" s="2">
@@ -5611,7 +5616,7 @@
       <c r="C10" s="2">
         <v>-77.830883647899995</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>406.70620795899998</v>
       </c>
       <c r="F10" s="2">
@@ -5638,7 +5643,7 @@
       <c r="C11" s="2">
         <v>-75.652755099299995</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>407.58435743799998</v>
       </c>
       <c r="F11" s="2">
@@ -5665,7 +5670,7 @@
       <c r="C12" s="2">
         <v>-73.445277619199999</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>408.55031045599998</v>
       </c>
       <c r="F12" s="2">
@@ -5692,7 +5697,7 @@
       <c r="C13" s="2">
         <v>-71.194055442000007</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>409.59583066699997</v>
       </c>
       <c r="F13" s="2">
@@ -5719,7 +5724,7 @@
       <c r="C14" s="2">
         <v>-68.884034794900003</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>410.71102574700001</v>
       </c>
       <c r="F14" s="2">
@@ -5746,7 +5751,7 @@
       <c r="C15" s="2">
         <v>-66.499291318600001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>411.88449288300001</v>
       </c>
       <c r="F15" s="2">
@@ -5773,7 +5778,7 @@
       <c r="C16" s="2">
         <v>-64.022823477900005</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>413.10349319599999</v>
       </c>
       <c r="F16" s="2">
@@ -5800,7 +5805,7 @@
       <c r="C17" s="2">
         <v>-61.4363617323</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>414.35415160399998</v>
       </c>
       <c r="F17" s="2">
@@ -5827,7 +5832,7 @@
       <c r="C18" s="2">
         <v>-58.720210671799997</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>415.62167819000001</v>
       </c>
       <c r="F18" s="2">
@@ -5854,7 +5859,7 @@
       <c r="C19" s="2">
         <v>-55.853152225999999</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>416.890606773</v>
       </c>
       <c r="F19" s="2">
@@ -5881,7 +5886,7 @@
       <c r="C20" s="2">
         <v>-52.812453639499999</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>418.14504612299999</v>
       </c>
       <c r="F20" s="2">
@@ -5908,7 +5913,7 @@
       <c r="C21" s="2">
         <v>-49.574043452399998</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>419.36893913500001</v>
       </c>
       <c r="F21" s="2">
@@ -5935,7 +5940,7 @@
       <c r="C22" s="2">
         <v>-46.112948043499998</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>420.54632522399999</v>
       </c>
       <c r="F22" s="2">
@@ -5962,7 +5967,7 @@
       <c r="C23" s="2">
         <v>-42.404103514799999</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>421.66160126900002</v>
       </c>
       <c r="F23" s="2">
@@ -5989,7 +5994,7 @@
       <c r="C24" s="2">
         <v>-38.423686151399998</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>422.69977656600003</v>
       </c>
       <c r="F24" s="2">
@@ -6016,7 +6021,7 @@
       <c r="C25" s="2">
         <v>-34.151101885499997</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>423.64671749399997</v>
       </c>
       <c r="F25" s="2">
@@ -6043,7 +6048,7 @@
       <c r="C26" s="2">
         <v>-29.571727643799999</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>424.48937783399998</v>
       </c>
       <c r="F26" s="2">
@@ -6070,7 +6075,7 @@
       <c r="C27" s="2">
         <v>-24.680362327000001</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>425.21601107999999</v>
       </c>
       <c r="F27" s="2">
@@ -6097,7 +6102,7 @@
       <c r="C28" s="2">
         <v>-19.485092848600001</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>425.81636138300001</v>
       </c>
       <c r="F28" s="2">
@@ -6124,7 +6129,7 @@
       <c r="C29" s="2">
         <v>-14.0109208342</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>426.28183023000003</v>
       </c>
       <c r="F29" s="2">
@@ -6151,7 +6156,7 @@
       <c r="C30" s="2">
         <v>-8.3021289116499997</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>426.60561635200003</v>
       </c>
       <c r="F30" s="2">
@@ -6178,7 +6183,7 @@
       <c r="C31" s="2">
         <v>-2.4222079786699999</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>426.78282680299998</v>
       </c>
       <c r="F31" s="2">
@@ -6205,7 +6210,7 @@
       <c r="C32" s="2">
         <v>3.5495230493099998</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>426.81055759700001</v>
       </c>
       <c r="F32" s="2">
@@ -6232,7 +6237,7 @@
       <c r="C33" s="2">
         <v>9.5245991988299998</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>426.68794274200002</v>
       </c>
       <c r="F33" s="2">
@@ -6259,7 +6264,7 @@
       <c r="C34" s="2">
         <v>15.4142141982</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>426.41617095800001</v>
       </c>
       <c r="F34" s="2">
@@ -6286,7 +6291,7 @@
       <c r="C35" s="2">
         <v>21.138109034599999</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>425.99846983200001</v>
       </c>
       <c r="F35" s="2">
@@ -6313,7 +6318,7 @@
       <c r="C36" s="2">
         <v>26.6314644208</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>425.44005759800001</v>
       </c>
       <c r="F36" s="2">
@@ -6340,7 +6345,7 @@
       <c r="C37" s="2">
         <v>31.848539229699998</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>424.74806321699998</v>
       </c>
       <c r="F37" s="2">
@@ -6367,7 +6372,7 @@
       <c r="C38" s="2">
         <v>36.7629655275</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>423.93141584</v>
       </c>
       <c r="F38" s="2">
@@ -6394,7 +6399,7 @@
       <c r="C39" s="2">
         <v>41.365522707899999</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>423.00070525199999</v>
       </c>
       <c r="F39" s="2">
@@ -6421,7 +6426,7 @@
       <c r="C40" s="2">
         <v>45.660565203600001</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>421.96801528700001</v>
       </c>
       <c r="F40" s="2">
@@ -6448,7 +6453,7 @@
       <c r="C41" s="2">
         <v>49.662146913000001</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>420.84673268799997</v>
       </c>
       <c r="F41" s="2">
@@ -6475,7 +6480,7 @@
       <c r="C42" s="2">
         <v>53.390525599599997</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>419.65133429299999</v>
       </c>
       <c r="F42" s="2">
@@ -6502,7 +6507,7 @@
       <c r="C43" s="2">
         <v>56.869365157799997</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>418.39715586599999</v>
       </c>
       <c r="F43" s="2">
@@ -6529,7 +6534,7 @@
       <c r="C44" s="2">
         <v>60.123693404800001</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>417.10014623199999</v>
       </c>
       <c r="F44" s="2">
@@ -6556,7 +6561,7 @@
       <c r="C45" s="2">
         <v>63.178526717099999</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>415.77661075899999</v>
       </c>
       <c r="F45" s="2">
@@ -6583,7 +6588,7 @@
       <c r="C46" s="2">
         <v>66.058024932600006</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>414.44294851299998</v>
       </c>
       <c r="F46" s="2">
@@ -6610,7 +6615,7 @@
       <c r="C47" s="2">
         <v>68.785032216900007</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>413.11538761399999</v>
       </c>
       <c r="F47" s="2">
@@ -6637,7 +6642,7 @@
       <c r="C48" s="2">
         <v>71.380884764399994</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>411.80972351700001</v>
       </c>
       <c r="F48" s="2">
@@ -6664,7 +6669,7 @@
       <c r="C49" s="2">
         <v>73.865393074899998</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>410.54106497399999</v>
       </c>
       <c r="F49" s="2">
@@ -6691,7 +6696,7 @@
       <c r="C50" s="2">
         <v>76.256932812399995</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>409.32359242799998</v>
       </c>
       <c r="F50" s="2">
@@ -6718,7 +6723,7 @@
       <c r="C51" s="2">
         <v>78.572599380499994</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>408.17033344399999</v>
       </c>
       <c r="F51" s="2">
@@ -6745,7 +6750,7 @@
       <c r="C52" s="2">
         <v>80.828397132399999</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>407.09295953399999</v>
       </c>
       <c r="F52" s="2">
@@ -6772,7 +6777,7 @@
       <c r="C53" s="2">
         <v>83.039445342199997</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>406.10160840600003</v>
       </c>
       <c r="F53" s="2">
@@ -6799,7 +6804,7 @@
       <c r="C54" s="2">
         <v>85.220190542799998</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>405.20473516999999</v>
       </c>
       <c r="F54" s="2">
@@ -6826,7 +6831,7 @@
       <c r="C55" s="2">
         <v>87.3846210711</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>404.40899552000002</v>
       </c>
       <c r="F55" s="2">
@@ -6853,7 +6858,7 @@
       <c r="C56" s="2">
         <v>89.546479334300003</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>403.719163229</v>
       </c>
       <c r="F56" s="2">
@@ -6880,7 +6885,7 @@
       <c r="C57" s="2">
         <v>91.719475106900006</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>403.13808361399998</v>
       </c>
       <c r="F57" s="2">
@@ -6907,7 +6912,7 @@
       <c r="C58" s="2">
         <v>93.917498222199995</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>402.66666383799998</v>
       </c>
       <c r="F58" s="2">
@@ -6934,7 +6939,7 @@
       <c r="C59" s="2">
         <v>96.154832717299996</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>402.30390014199997</v>
       </c>
       <c r="F59" s="2">
@@ -6961,7 +6966,7 @@
       <c r="C60" s="2">
         <v>98.446372713399995</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>402.04694129000001</v>
       </c>
       <c r="F60" s="2">
@@ -6988,7 +6993,7 @@
       <c r="C61" s="2">
         <v>100.807839003</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>401.89118674100001</v>
       </c>
       <c r="F61" s="2">
@@ -7015,7 +7020,7 @@
       <c r="C62" s="2">
         <v>103.25599266899999</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>401.830417313</v>
       </c>
       <c r="F62" s="2">
@@ -7042,7 +7047,7 @@
       <c r="C63" s="2">
         <v>105.808837772</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>401.85695543700001</v>
       </c>
       <c r="F63" s="2">
@@ -7069,7 +7074,7 @@
       <c r="C64" s="2">
         <v>108.48579850199999</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>401.96185149399997</v>
       </c>
       <c r="F64" s="2">
@@ -7096,7 +7101,7 @@
       <c r="C65" s="2">
         <v>111.307846144</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>402.13509224000001</v>
       </c>
       <c r="F65" s="2">
@@ -7123,7 +7128,7 @@
       <c r="C66" s="2">
         <v>114.29753809499999</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>402.36582691299998</v>
       </c>
       <c r="F66" s="2">
@@ -7150,7 +7155,7 @@
       <c r="C67" s="2">
         <v>117.47890803999999</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>402.64260634300001</v>
       </c>
       <c r="F67" s="2">
@@ -7177,7 +7182,7 @@
       <c r="C68" s="2">
         <v>120.877126914</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>402.95363019799998</v>
       </c>
       <c r="F68" s="2">
@@ -7204,7 +7209,7 @@
       <c r="C69" s="2">
         <v>124.517819098</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>403.28699746000001</v>
       </c>
       <c r="F69" s="2">
@@ -7231,7 +7236,7 @@
       <c r="C70" s="2">
         <v>128.42589442100001</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>403.63095524400001</v>
       </c>
       <c r="F70" s="2">
@@ -7258,7 +7263,7 @@
       <c r="C71" s="2">
         <v>132.623743655</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>403.97414122200001</v>
       </c>
       <c r="F71" s="2">
@@ -7285,7 +7290,7 @@
       <c r="C72" s="2">
         <v>137.128674343</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>404.30581513700002</v>
       </c>
       <c r="F72" s="2">
@@ -7312,7 +7317,7 @@
       <c r="C73" s="2">
         <v>141.94957015599999</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>404.61607519400002</v>
       </c>
       <c r="F73" s="2">
@@ -7339,7 +7344,7 @@
       <c r="C74" s="2">
         <v>147.082979131</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>404.89605546799999</v>
       </c>
       <c r="F74" s="2">
@@ -7366,7 +7371,7 @@
       <c r="C75" s="2">
         <v>152.509183823</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>405.13810088100001</v>
       </c>
       <c r="F75" s="2">
@@ -7393,7 +7398,7 @@
       <c r="C76" s="2">
         <v>158.189209828</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>405.33591675999998</v>
       </c>
       <c r="F76" s="2">
@@ -7420,7 +7425,7 @@
       <c r="C77" s="2">
         <v>164.06399568800001</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>405.48469046700001</v>
       </c>
       <c r="F77" s="2">
@@ -7447,7 +7452,7 @@
       <c r="C78" s="2">
         <v>170.05679978200001</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>405.58118307699999</v>
       </c>
       <c r="F78" s="2">
@@ -7474,7 +7479,7 @@
       <c r="C79" s="2">
         <v>176.07916633100001</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>405.62378962499997</v>
       </c>
       <c r="F79" s="2">
@@ -7501,7 +7506,7 @@
       <c r="C80" s="2">
         <v>-177.960416423</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>405.61256695600002</v>
       </c>
       <c r="F80" s="2">
@@ -7518,7 +7523,7 @@
         <v>2.0762934032824294</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>78</v>
       </c>
@@ -7528,7 +7533,7 @@
       <c r="C81" s="2">
         <v>-172.147115896</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>405.54922873599998</v>
       </c>
       <c r="F81" s="2">
@@ -7545,7 +7550,7 @@
         <v>2.3205459657482468</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>79</v>
       </c>
@@ -7555,7 +7560,7 @@
       <c r="C82" s="2">
         <v>-166.55187841</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>405.43710775300002</v>
       </c>
       <c r="F82" s="2">
@@ -7572,7 +7577,7 @@
         <v>2.0364817030444318</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>80</v>
       </c>
@@ -7582,7 +7587,7 @@
       <c r="C83" s="2">
         <v>-161.22669794999999</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>405.28108611099998</v>
       </c>
       <c r="F83" s="2">
@@ -7599,7 +7604,7 @@
         <v>1.7399465949763366</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>81</v>
       </c>
@@ -7609,7 +7614,7 @@
       <c r="C84" s="2">
         <v>-156.20345248000001</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>405.087494521</v>
       </c>
       <c r="F84" s="2">
@@ -7626,7 +7631,7 @@
         <v>2.0611497277763764</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>82</v>
       </c>
@@ -7636,7 +7641,7 @@
       <c r="C85" s="2">
         <v>-151.49564714900001</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>404.863982351</v>
       </c>
       <c r="F85" s="2">
@@ -7653,7 +7658,7 @@
         <v>2.1204205180342655</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>83</v>
       </c>
@@ -7663,7 +7668,7 @@
       <c r="C86" s="2">
         <v>-147.10187259899999</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>404.61936064999998</v>
       </c>
       <c r="F86" s="2">
@@ -7680,7 +7685,7 @@
         <v>2.3518177694585858</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>84</v>
       </c>
@@ -7690,7 +7695,7 @@
       <c r="C87" s="2">
         <v>-143.00981756499999</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>404.36342082599998</v>
       </c>
       <c r="F87" s="2">
@@ -7707,7 +7712,7 @@
         <v>1.9351343924958457</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>85</v>
       </c>
@@ -7717,7 +7722,7 @@
       <c r="C88" s="2">
         <v>-139.200020303</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>404.10673214600001</v>
       </c>
       <c r="F88" s="2">
@@ -7734,7 +7739,7 @@
         <v>1.8336355204352459</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>86</v>
       </c>
@@ -7744,7 +7749,7 @@
       <c r="C89" s="2">
         <v>-135.648941087</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>403.86042162899997</v>
       </c>
       <c r="F89" s="2">
@@ -7761,7 +7766,7 @@
         <v>1.9615317436675048</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>87</v>
       </c>
@@ -7771,7 +7776,7 @@
       <c r="C90" s="2">
         <v>-132.33124711599999</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>403.63594032700001</v>
       </c>
       <c r="F90" s="2">
@@ -7788,7 +7793,7 @@
         <v>1.9471947175181912</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>88</v>
       </c>
@@ -7798,7 +7803,7 @@
       <c r="C91" s="2">
         <v>-129.22137267400001</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>403.44482029199997</v>
       </c>
       <c r="F91" s="2">
@@ -7815,7 +7820,7 @@
         <v>2.0230835906913582</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>89</v>
       </c>
@@ -7825,7 +7830,7 @@
       <c r="C92" s="2">
         <v>-126.294497315</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <v>403.29842681000002</v>
       </c>
       <c r="F92" s="2">
@@ -7842,7 +7847,7 @@
         <v>1.5493473038430337</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>90</v>
       </c>
@@ -7852,7 +7857,7 @@
       <c r="C93" s="2">
         <v>-123.527092137</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>403.20771067099997</v>
       </c>
       <c r="F93" s="2">
@@ -7869,7 +7874,7 @@
         <v>1.5295370161933595</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>91</v>
       </c>
@@ -7879,7 +7884,7 @@
       <c r="C94" s="2">
         <v>-120.897165868</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>403.18296534299998</v>
       </c>
       <c r="F94" s="2">
@@ -7896,7 +7901,7 @@
         <v>1.8367977393092938</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>92</v>
       </c>
@@ -7906,7 +7911,7 @@
       <c r="C95" s="2">
         <v>-118.38431312900001</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>403.23359392100002</v>
       </c>
       <c r="F95" s="2">
@@ -7923,7 +7928,7 @@
         <v>1.7563427774116571</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>93</v>
       </c>
@@ -7933,7 +7938,7 @@
       <c r="C96" s="2">
         <v>-115.969638975</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>403.36789061600001</v>
       </c>
       <c r="F96" s="2">
@@ -7949,17 +7954,1523 @@
         <f t="shared" si="0"/>
         <v>2.4776813368811528</v>
       </c>
-    </row>
-    <row r="97" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I97" t="s">
+      <c r="L96" t="s">
+        <v>16</v>
+      </c>
+      <c r="P96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98" s="2">
+        <v>13.5007406363</v>
+      </c>
+      <c r="C98" s="2">
+        <v>-113.63561043199999</v>
+      </c>
+      <c r="D98" s="2">
+        <v>403.59284135000001</v>
+      </c>
+      <c r="I98" t="s">
         <v>12</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J98" s="5">
         <f>AVERAGE(J3:J96)</f>
         <v>2.327695100103365</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L98" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99" s="2">
+        <v>10.476033877800001</v>
+      </c>
+      <c r="C99" s="2">
+        <v>-111.36586813700001</v>
+      </c>
+      <c r="D99" s="2">
+        <v>403.91394767700001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>96</v>
+      </c>
+      <c r="B100" s="2">
+        <v>7.4317270194400002</v>
+      </c>
+      <c r="C100" s="2">
+        <v>-109.145018784</v>
+      </c>
+      <c r="D100" s="2">
+        <v>404.33507784199998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>97</v>
+      </c>
+      <c r="B101" s="2">
+        <v>4.3740049949299999</v>
+      </c>
+      <c r="C101" s="2">
+        <v>-106.958419269</v>
+      </c>
+      <c r="D101" s="2">
+        <v>404.85834823699997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1.30877233767</v>
+      </c>
+      <c r="C102" s="2">
+        <v>-104.791961274</v>
+      </c>
+      <c r="D102" s="2">
+        <v>405.48403791800001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-1.7582320379900001</v>
+      </c>
+      <c r="C103" s="2">
+        <v>-102.631855496</v>
+      </c>
+      <c r="D103" s="2">
+        <v>406.21053812500003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>100</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-4.8213255051099999</v>
+      </c>
+      <c r="C104" s="2">
+        <v>-100.464418428</v>
+      </c>
+      <c r="D104" s="2">
+        <v>407.034338031</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-7.8747741827000004</v>
+      </c>
+      <c r="C105" s="2">
+        <v>-98.275859928900005</v>
+      </c>
+      <c r="D105" s="2">
+        <v>407.95004713700001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106" s="2">
+        <v>-10.912683555199999</v>
+      </c>
+      <c r="C106" s="2">
+        <v>-96.052070650399997</v>
+      </c>
+      <c r="D106" s="2">
+        <v>408.95045396299997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107" s="2">
+        <v>-13.928883619300001</v>
+      </c>
+      <c r="C107" s="2">
+        <v>-93.778408668599994</v>
+      </c>
+      <c r="D107" s="2">
+        <v>410.026619896</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108" s="2">
+        <v>-16.916804901799999</v>
+      </c>
+      <c r="C108" s="2">
+        <v>-91.439485893500006</v>
+      </c>
+      <c r="D108" s="2">
+        <v>411.16800631799998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" s="2">
+        <v>-19.8693416982</v>
+      </c>
+      <c r="C109" s="2">
+        <v>-89.018957139700007</v>
+      </c>
+      <c r="D109" s="2">
+        <v>412.362632464</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-22.778699003</v>
+      </c>
+      <c r="C110" s="2">
+        <v>-86.499318504900003</v>
+      </c>
+      <c r="D110" s="2">
+        <v>413.59726082399999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111" s="2">
+        <v>-25.6362199989</v>
+      </c>
+      <c r="C111" s="2">
+        <v>-83.861727712299995</v>
+      </c>
+      <c r="D111" s="2">
+        <v>414.85760642999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>108</v>
+      </c>
+      <c r="B112" s="2">
+        <v>-28.4321918881</v>
+      </c>
+      <c r="C112" s="2">
+        <v>-81.085866636299997</v>
+      </c>
+      <c r="D112" s="2">
+        <v>416.12856589099999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>109</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-31.155629684400001</v>
+      </c>
+      <c r="C113" s="2">
+        <v>-78.149882410100005</v>
+      </c>
+      <c r="D113" s="2">
+        <v>417.394461783</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>110</v>
+      </c>
+      <c r="B114" s="2">
+        <v>-33.794040918599997</v>
+      </c>
+      <c r="C114" s="2">
+        <v>-75.030455176399997</v>
+      </c>
+      <c r="D114" s="2">
+        <v>418.63929775999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>111</v>
+      </c>
+      <c r="B115" s="2">
+        <v>-36.3331798623</v>
+      </c>
+      <c r="C115" s="2">
+        <v>-71.703069369900007</v>
+      </c>
+      <c r="D115" s="2">
+        <v>419.84701965900001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>112</v>
+      </c>
+      <c r="B116" s="2">
+        <v>-38.756808860600003</v>
+      </c>
+      <c r="C116" s="2">
+        <v>-68.142589192499997</v>
+      </c>
+      <c r="D116" s="2">
+        <v>421.00177788799999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>113</v>
+      </c>
+      <c r="B117" s="2">
+        <v>-41.046497737999999</v>
+      </c>
+      <c r="C117" s="2">
+        <v>-64.3242672887</v>
+      </c>
+      <c r="D117" s="2">
+        <v>422.08818646200001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>114</v>
+      </c>
+      <c r="B118" s="2">
+        <v>-43.1815105246</v>
+      </c>
+      <c r="C118" s="2">
+        <v>-60.225331586700001</v>
+      </c>
+      <c r="D118" s="2">
+        <v>423.091574245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>115</v>
+      </c>
+      <c r="B119" s="2">
+        <v>-45.138850913699997</v>
+      </c>
+      <c r="C119" s="2">
+        <v>-55.827279576400002</v>
+      </c>
+      <c r="D119" s="2">
+        <v>423.99822418299999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>116</v>
+      </c>
+      <c r="B120" s="2">
+        <v>-46.893559438899999</v>
+      </c>
+      <c r="C120" s="2">
+        <v>-51.118929599399998</v>
+      </c>
+      <c r="D120" s="2">
+        <v>424.79559663999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>117</v>
+      </c>
+      <c r="B121" s="2">
+        <v>-48.4193663466</v>
+      </c>
+      <c r="C121" s="2">
+        <v>-46.100097741799999</v>
+      </c>
+      <c r="D121" s="2">
+        <v>425.472533279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>118</v>
+      </c>
+      <c r="B122" s="2">
+        <v>-49.6897880478</v>
+      </c>
+      <c r="C122" s="2">
+        <v>-40.785466933599999</v>
+      </c>
+      <c r="D122" s="2">
+        <v>426.019438342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>119</v>
+      </c>
+      <c r="B123" s="2">
+        <v>-50.679692531500002</v>
+      </c>
+      <c r="C123" s="2">
+        <v>-35.207833435300003</v>
+      </c>
+      <c r="D123" s="2">
+        <v>426.42843456000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>120</v>
+      </c>
+      <c r="B124" s="2">
+        <v>-51.367239998400002</v>
+      </c>
+      <c r="C124" s="2">
+        <v>-29.419602703599999</v>
+      </c>
+      <c r="D124" s="2">
+        <v>426.69349139600001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>121</v>
+      </c>
+      <c r="B125" s="2">
+        <v>-51.735947171200003</v>
+      </c>
+      <c r="C125" s="2">
+        <v>-23.4914179212</v>
+      </c>
+      <c r="D125" s="2">
+        <v>426.81052373699998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>122</v>
+      </c>
+      <c r="B126" s="2">
+        <v>-51.776486322499998</v>
+      </c>
+      <c r="C126" s="2">
+        <v>-17.507348216499999</v>
+      </c>
+      <c r="D126" s="2">
+        <v>426.77745960200002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>123</v>
+      </c>
+      <c r="B127" s="2">
+        <v>-51.487797169399997</v>
+      </c>
+      <c r="C127" s="2">
+        <v>-11.5571232915</v>
+      </c>
+      <c r="D127" s="2">
+        <v>426.59427590400003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>124</v>
+      </c>
+      <c r="B128" s="2">
+        <v>-50.877217183299997</v>
+      </c>
+      <c r="C128" s="2">
+        <v>-5.7270220214699998</v>
+      </c>
+      <c r="D128" s="2">
+        <v>426.26300173599998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>125</v>
+      </c>
+      <c r="B129" s="2">
+        <v>-49.959594273299999</v>
+      </c>
+      <c r="C129" s="2">
+        <v>-9.1588376607599997E-2</v>
+      </c>
+      <c r="D129" s="2">
+        <v>425.78768911499998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>126</v>
+      </c>
+      <c r="B130" s="2">
+        <v>-48.755621132000002</v>
+      </c>
+      <c r="C130" s="2">
+        <v>5.2920027768900004</v>
+      </c>
+      <c r="D130" s="2">
+        <v>425.17435157800003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>127</v>
+      </c>
+      <c r="B131" s="2">
+        <v>-47.289797034899998</v>
+      </c>
+      <c r="C131" s="2">
+        <v>10.3861499877</v>
+      </c>
+      <c r="D131" s="2">
+        <v>424.43087146400001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>128</v>
+      </c>
+      <c r="B132" s="2">
+        <v>-45.588427077799999</v>
+      </c>
+      <c r="C132" s="2">
+        <v>15.1719453289</v>
+      </c>
+      <c r="D132" s="2">
+        <v>423.566877197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>129</v>
+      </c>
+      <c r="B133" s="2">
+        <v>-43.677949454199997</v>
+      </c>
+      <c r="C133" s="2">
+        <v>19.646248802199999</v>
+      </c>
+      <c r="D133" s="2">
+        <v>422.59359230699999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>130</v>
+      </c>
+      <c r="B134" s="2">
+        <v>-41.583721578199999</v>
+      </c>
+      <c r="C134" s="2">
+        <v>23.817882378299998</v>
+      </c>
+      <c r="D134" s="2">
+        <v>421.52365839999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>131</v>
+      </c>
+      <c r="B135" s="2">
+        <v>-39.329263988900003</v>
+      </c>
+      <c r="C135" s="2">
+        <v>27.703851777600001</v>
+      </c>
+      <c r="D135" s="2">
+        <v>420.37093470799999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>132</v>
+      </c>
+      <c r="B136" s="2">
+        <v>-36.935884651000002</v>
+      </c>
+      <c r="C136" s="2">
+        <v>31.326117542999999</v>
+      </c>
+      <c r="D136" s="2">
+        <v>419.15027729399998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>133</v>
+      </c>
+      <c r="B137" s="2">
+        <v>-34.4225804075</v>
+      </c>
+      <c r="C137" s="2">
+        <v>34.709113782400003</v>
+      </c>
+      <c r="D137" s="2">
+        <v>417.87730136300002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>134</v>
+      </c>
+      <c r="B138" s="2">
+        <v>-31.806118368100002</v>
+      </c>
+      <c r="C138" s="2">
+        <v>37.877996504599999</v>
+      </c>
+      <c r="D138" s="2">
+        <v>416.56813051799998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>135</v>
+      </c>
+      <c r="B139" s="2">
+        <v>-29.101220160800001</v>
+      </c>
+      <c r="C139" s="2">
+        <v>40.857505588400002</v>
+      </c>
+      <c r="D139" s="2">
+        <v>415.23913711500001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>136</v>
+      </c>
+      <c r="B140" s="2">
+        <v>-26.320794574400001</v>
+      </c>
+      <c r="C140" s="2">
+        <v>43.671295111699997</v>
+      </c>
+      <c r="D140" s="2">
+        <v>413.90667813099998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>137</v>
+      </c>
+      <c r="B141" s="2">
+        <v>-23.476183561199999</v>
+      </c>
+      <c r="C141" s="2">
+        <v>46.3415975733</v>
+      </c>
+      <c r="D141" s="2">
+        <v>412.58683118699997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>138</v>
+      </c>
+      <c r="B142" s="2">
+        <v>-20.577401137900001</v>
+      </c>
+      <c r="C142" s="2">
+        <v>48.889113317800003</v>
+      </c>
+      <c r="D142" s="2">
+        <v>411.29513543799999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>139</v>
+      </c>
+      <c r="B143" s="2">
+        <v>-17.633354709300001</v>
+      </c>
+      <c r="C143" s="2">
+        <v>51.333044353399998</v>
+      </c>
+      <c r="D143" s="2">
+        <v>410.04634213100002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>140</v>
+      </c>
+      <c r="B144" s="2">
+        <v>-14.6520447119</v>
+      </c>
+      <c r="C144" s="2">
+        <v>53.6912159647</v>
+      </c>
+      <c r="D144" s="2">
+        <v>408.85417950800002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>141</v>
+      </c>
+      <c r="B145" s="2">
+        <v>-11.6407423013</v>
+      </c>
+      <c r="C145" s="2">
+        <v>55.980248224</v>
+      </c>
+      <c r="D145" s="2">
+        <v>407.73113658800003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>142</v>
+      </c>
+      <c r="B146" s="2">
+        <v>-8.6061469502500003</v>
+      </c>
+      <c r="C146" s="2">
+        <v>58.2157544612</v>
+      </c>
+      <c r="D146" s="2">
+        <v>406.68827004500002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>143</v>
+      </c>
+      <c r="B147" s="2">
+        <v>-5.5545269247600002</v>
+      </c>
+      <c r="C147" s="2">
+        <v>60.412549826400003</v>
+      </c>
+      <c r="D147" s="2">
+        <v>405.73503803199998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>144</v>
+      </c>
+      <c r="B148" s="2">
+        <v>-2.4918461054100001</v>
+      </c>
+      <c r="C148" s="2">
+        <v>62.584865440900003</v>
+      </c>
+      <c r="D148" s="2">
+        <v>404.87916428300002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>145</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.57611920853599996</v>
+      </c>
+      <c r="C149" s="2">
+        <v>64.746561956099995</v>
+      </c>
+      <c r="D149" s="2">
+        <v>404.12653522900001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>146</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3.64366984769</v>
+      </c>
+      <c r="C150" s="2">
+        <v>66.911342492900005</v>
+      </c>
+      <c r="D150" s="2">
+        <v>403.48113219800001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151" s="2">
+        <v>6.7050760310499999</v>
+      </c>
+      <c r="C151" s="2">
+        <v>69.092965226999993</v>
+      </c>
+      <c r="D151" s="2">
+        <v>402.94500003600001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>148</v>
+      </c>
+      <c r="B152" s="2">
+        <v>9.7544687018600005</v>
+      </c>
+      <c r="C152" s="2">
+        <v>71.305456667599998</v>
+      </c>
+      <c r="D152" s="2">
+        <v>402.51825269400001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>149</v>
+      </c>
+      <c r="B153" s="2">
+        <v>12.785726286899999</v>
+      </c>
+      <c r="C153" s="2">
+        <v>73.563326525199997</v>
+      </c>
+      <c r="D153" s="2">
+        <v>402.19911554599997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>150</v>
+      </c>
+      <c r="B154" s="2">
+        <v>15.792353176600001</v>
+      </c>
+      <c r="C154" s="2">
+        <v>75.881784128500001</v>
+      </c>
+      <c r="D154" s="2">
+        <v>401.984003384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>151</v>
+      </c>
+      <c r="B155" s="2">
+        <v>18.767346183000001</v>
+      </c>
+      <c r="C155" s="2">
+        <v>78.276954431600004</v>
+      </c>
+      <c r="D155" s="2">
+        <v>401.86763231399999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>152</v>
+      </c>
+      <c r="B156" s="2">
+        <v>21.703045276200001</v>
+      </c>
+      <c r="C156" s="2">
+        <v>80.766088231400005</v>
+      </c>
+      <c r="D156" s="2">
+        <v>401.843163006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>153</v>
+      </c>
+      <c r="B157" s="2">
+        <v>24.590965154700001</v>
+      </c>
+      <c r="C157" s="2">
+        <v>83.367757229299997</v>
+      </c>
+      <c r="D157" s="2">
+        <v>401.902372157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>154</v>
+      </c>
+      <c r="B158" s="2">
+        <v>27.4216049011</v>
+      </c>
+      <c r="C158" s="2">
+        <v>86.102013186299999</v>
+      </c>
+      <c r="D158" s="2">
+        <v>402.03584844400001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>155</v>
+      </c>
+      <c r="B159" s="2">
+        <v>30.184234454399999</v>
+      </c>
+      <c r="C159" s="2">
+        <v>88.990484741800003</v>
+      </c>
+      <c r="D159" s="2">
+        <v>402.233208768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>156</v>
+      </c>
+      <c r="B160" s="2">
+        <v>32.866659439700001</v>
+      </c>
+      <c r="C160" s="2">
+        <v>92.056363203000004</v>
+      </c>
+      <c r="D160" s="2">
+        <v>402.48333029499997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>157</v>
+      </c>
+      <c r="B161" s="2">
+        <v>35.4549708033</v>
+      </c>
+      <c r="C161" s="2">
+        <v>95.324210122899999</v>
+      </c>
+      <c r="D161" s="2">
+        <v>402.77459348399998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>158</v>
+      </c>
+      <c r="B162" s="2">
+        <v>37.933293728300001</v>
+      </c>
+      <c r="C162" s="2">
+        <v>98.819490940400001</v>
+      </c>
+      <c r="D162" s="2">
+        <v>403.09513124199998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>159</v>
+      </c>
+      <c r="B163" s="2">
+        <v>40.283562592800003</v>
+      </c>
+      <c r="C163" s="2">
+        <v>102.56770951999999</v>
+      </c>
+      <c r="D163" s="2">
+        <v>403.43307926900002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>160</v>
+      </c>
+      <c r="B164" s="2">
+        <v>42.485366159199998</v>
+      </c>
+      <c r="C164" s="2">
+        <v>106.592995286</v>
+      </c>
+      <c r="D164" s="2">
+        <v>403.77682276600001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>161</v>
+      </c>
+      <c r="B165" s="2">
+        <v>44.515929414200002</v>
+      </c>
+      <c r="C165" s="2">
+        <v>110.91599597</v>
+      </c>
+      <c r="D165" s="2">
+        <v>404.11523486300001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>162</v>
+      </c>
+      <c r="B166" s="2">
+        <v>46.350322309299997</v>
+      </c>
+      <c r="C166" s="2">
+        <v>115.55098499100001</v>
+      </c>
+      <c r="D166" s="2">
+        <v>404.437902345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>163</v>
+      </c>
+      <c r="B167" s="2">
+        <v>47.962002676799997</v>
+      </c>
+      <c r="C167" s="2">
+        <v>120.50224271099999</v>
+      </c>
+      <c r="D167" s="2">
+        <v>404.73533462199998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>164</v>
+      </c>
+      <c r="B168" s="2">
+        <v>49.323795464699998</v>
+      </c>
+      <c r="C168" s="2">
+        <v>125.760046703</v>
+      </c>
+      <c r="D168" s="2">
+        <v>404.99915223800002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>165</v>
+      </c>
+      <c r="B169" s="2">
+        <v>50.409362593799997</v>
+      </c>
+      <c r="C169" s="2">
+        <v>131.296992993</v>
+      </c>
+      <c r="D169" s="2">
+        <v>405.222251658</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>166</v>
+      </c>
+      <c r="B170" s="2">
+        <v>51.195111089900003</v>
+      </c>
+      <c r="C170" s="2">
+        <v>137.06574417900001</v>
+      </c>
+      <c r="D170" s="2">
+        <v>405.39894354799998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>167</v>
+      </c>
+      <c r="B171" s="2">
+        <v>51.662328948499997</v>
+      </c>
+      <c r="C171" s="2">
+        <v>142.99943548499999</v>
+      </c>
+      <c r="D171" s="2">
+        <v>405.52506221300001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>168</v>
+      </c>
+      <c r="B172" s="2">
+        <v>51.799177572799998</v>
+      </c>
+      <c r="C172" s="2">
+        <v>149.01557510699999</v>
+      </c>
+      <c r="D172" s="2">
+        <v>405.59804443100001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>169</v>
+      </c>
+      <c r="B173" s="2">
+        <v>51.602092607000003</v>
+      </c>
+      <c r="C173" s="2">
+        <v>155.023300234</v>
+      </c>
+      <c r="D173" s="2">
+        <v>405.616976373</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>170</v>
+      </c>
+      <c r="B174" s="2">
+        <v>51.076227648</v>
+      </c>
+      <c r="C174" s="2">
+        <v>160.932618346</v>
+      </c>
+      <c r="D174" s="2">
+        <v>405.58260789299999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>171</v>
+      </c>
+      <c r="B175" s="2">
+        <v>50.234817081300001</v>
+      </c>
+      <c r="C175" s="2">
+        <v>166.663436225</v>
+      </c>
+      <c r="D175" s="2">
+        <v>405.49733395800001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>172</v>
+      </c>
+      <c r="B176" s="2">
+        <v>49.097634470499997</v>
+      </c>
+      <c r="C176" s="2">
+        <v>172.15227065299999</v>
+      </c>
+      <c r="D176" s="2">
+        <v>405.36514355700001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>173</v>
+      </c>
+      <c r="B177" s="2">
+        <v>47.688940495200001</v>
+      </c>
+      <c r="C177" s="2">
+        <v>177.35548588500001</v>
+      </c>
+      <c r="D177" s="2">
+        <v>405.19153693599998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>174</v>
+      </c>
+      <c r="B178" s="2">
+        <v>46.035364911099997</v>
+      </c>
+      <c r="C178" s="2">
+        <v>-177.75086836400001</v>
+      </c>
+      <c r="D178" s="2">
+        <v>404.98341255000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>175</v>
+      </c>
+      <c r="B179" s="2">
+        <v>44.164067787500002</v>
+      </c>
+      <c r="C179" s="2">
+        <v>-173.17366212900001</v>
+      </c>
+      <c r="D179" s="2">
+        <v>404.74892562799999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>176</v>
+      </c>
+      <c r="B180" s="2">
+        <v>42.101359377800001</v>
+      </c>
+      <c r="C180" s="2">
+        <v>-168.90649672699999</v>
+      </c>
+      <c r="D180" s="2">
+        <v>404.49732076399999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>177</v>
+      </c>
+      <c r="B181" s="2">
+        <v>39.871806896700001</v>
+      </c>
+      <c r="C181" s="2">
+        <v>-164.93368551899999</v>
+      </c>
+      <c r="D181" s="2">
+        <v>404.23874140800001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>178</v>
+      </c>
+      <c r="B182" s="2">
+        <v>37.497761027999999</v>
+      </c>
+      <c r="C182" s="2">
+        <v>-161.23375457099999</v>
+      </c>
+      <c r="D182" s="2">
+        <v>403.984019612</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>179</v>
+      </c>
+      <c r="B183" s="2">
+        <v>34.999196493500001</v>
+      </c>
+      <c r="C183" s="2">
+        <v>-157.78219052700001</v>
+      </c>
+      <c r="D183" s="2">
+        <v>403.744449766</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>180</v>
+      </c>
+      <c r="B184" s="2">
+        <v>32.393761393200002</v>
+      </c>
+      <c r="C184" s="2">
+        <v>-154.55341167399999</v>
+      </c>
+      <c r="D184" s="2">
+        <v>403.53155046699999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>181</v>
+      </c>
+      <c r="B185" s="2">
+        <v>29.696949239399999</v>
+      </c>
+      <c r="C185" s="2">
+        <v>-151.522069383</v>
+      </c>
+      <c r="D185" s="2">
+        <v>403.35681893200001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>182</v>
+      </c>
+      <c r="B186" s="2">
+        <v>26.922331590900001</v>
+      </c>
+      <c r="C186" s="2">
+        <v>-148.66383018100001</v>
+      </c>
+      <c r="D186" s="2">
+        <v>403.23148263899998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>183</v>
+      </c>
+      <c r="B187" s="2">
+        <v>24.081810677899998</v>
+      </c>
+      <c r="C187" s="2">
+        <v>-145.95578366300001</v>
+      </c>
+      <c r="D187" s="2">
+        <v>403.16625300099997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>184</v>
+      </c>
+      <c r="B188" s="2">
+        <v>21.185867867100001</v>
+      </c>
+      <c r="C188" s="2">
+        <v>-143.37659615600001</v>
+      </c>
+      <c r="D188" s="2">
+        <v>403.17108596700001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>185</v>
+      </c>
+      <c r="B189" s="2">
+        <v>18.2437952471</v>
+      </c>
+      <c r="C189" s="2">
+        <v>-140.90650034699999</v>
+      </c>
+      <c r="D189" s="2">
+        <v>403.25495438399997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>186</v>
+      </c>
+      <c r="B190" s="2">
+        <v>15.2639049816</v>
+      </c>
+      <c r="C190" s="2">
+        <v>-138.52718481700001</v>
+      </c>
+      <c r="D190" s="2">
+        <v>403.425636833</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>187</v>
+      </c>
+      <c r="B191" s="2">
+        <v>12.2537155369</v>
+      </c>
+      <c r="C191" s="2">
+        <v>-136.221625227</v>
+      </c>
+      <c r="D191" s="2">
+        <v>403.68952733899999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>188</v>
+      </c>
+      <c r="B192" s="2">
+        <v>9.2201164006899994</v>
+      </c>
+      <c r="C192" s="2">
+        <v>-133.97388705</v>
+      </c>
+      <c r="D192" s="2">
+        <v>404.05147006800001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>189</v>
+      </c>
+      <c r="B193" s="2">
+        <v>6.1695142159899996</v>
+      </c>
+      <c r="C193" s="2">
+        <v>-131.768913024</v>
+      </c>
+      <c r="D193" s="2">
+        <v>404.51462256500002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>190</v>
+      </c>
+      <c r="B194" s="2">
+        <v>3.1079638418200002</v>
+      </c>
+      <c r="C194" s="2">
+        <v>-129.592307116</v>
+      </c>
+      <c r="D194" s="2">
+        <v>405.080350587</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>191</v>
+      </c>
+      <c r="B195" s="2">
+        <v>4.12880584193E-2</v>
+      </c>
+      <c r="C195" s="2">
+        <v>-127.430118483</v>
+      </c>
+      <c r="D195" s="2">
+        <v>405.74815687500001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>192</v>
+      </c>
+      <c r="B196" s="2">
+        <v>-3.02481034845</v>
+      </c>
+      <c r="C196" s="2">
+        <v>-125.268627114</v>
+      </c>
+      <c r="D196" s="2">
+        <v>406.51564555099998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>193</v>
+      </c>
+      <c r="B197" s="2">
+        <v>-6.0846404349999998</v>
+      </c>
+      <c r="C197" s="2">
+        <v>-123.094130968</v>
+      </c>
+      <c r="D197" s="2">
+        <v>407.378523003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>194</v>
+      </c>
+      <c r="B198" s="2">
+        <v>-9.1324152359100008</v>
+      </c>
+      <c r="C198" s="2">
+        <v>-120.892733595</v>
+      </c>
+      <c r="D198" s="2">
+        <v>408.33063537800001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>195</v>
+      </c>
+      <c r="B199" s="2">
+        <v>-12.162140562399999</v>
+      </c>
+      <c r="C199" s="2">
+        <v>-118.650131274</v>
+      </c>
+      <c r="D199" s="2">
+        <v>409.364041993</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>196</v>
+      </c>
+      <c r="B200" s="2">
+        <v>-15.1674968192</v>
+      </c>
+      <c r="C200" s="2">
+        <v>-116.35139936500001</v>
+      </c>
+      <c r="D200" s="2">
+        <v>410.46912322600002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>197</v>
+      </c>
+      <c r="B201" s="2">
+        <v>-18.1417101794</v>
+      </c>
+      <c r="C201" s="2">
+        <v>-113.98077946399999</v>
+      </c>
+      <c r="D201" s="2">
+        <v>411.63472070300003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>198</v>
+      </c>
+      <c r="B202" s="2">
+        <v>-21.0774094953</v>
+      </c>
+      <c r="C202" s="2">
+        <v>-111.52147055899999</v>
+      </c>
+      <c r="D202" s="2">
+        <v>412.84830698500002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>199</v>
+      </c>
+      <c r="B203" s="2">
+        <v>-23.966465536099999</v>
+      </c>
+      <c r="C203" s="2">
+        <v>-108.95543549</v>
+      </c>
+      <c r="D203" s="2">
+        <v>414.09618133700002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>200</v>
+      </c>
+      <c r="B204" s="2">
+        <v>-26.799809714199998</v>
+      </c>
+      <c r="C204" s="2">
+        <v>-106.263235034</v>
+      </c>
+      <c r="D204" s="2">
+        <v>415.363687717</v>
       </c>
     </row>
   </sheetData>
